--- a/reports/WSS-Local-ServerSideTime-Streaming-Measurements.xlsx
+++ b/reports/WSS-Local-ServerSideTime-Streaming-Measurements.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="18870" windowHeight="4890"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="4890" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1 StreamingSources" sheetId="12" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="30">
   <si>
     <t>"-Xmx512m"</t>
   </si>
@@ -115,16 +115,10 @@
     <t>2000K Avg</t>
   </si>
   <si>
-    <t>OOM issue</t>
-  </si>
-  <si>
     <t>No of Sources</t>
   </si>
   <si>
     <t>Time (secs)</t>
-  </si>
-  <si>
-    <t>OOM</t>
   </si>
 </sst>
 </file>
@@ -230,10 +224,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,11 +434,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="311768896"/>
-        <c:axId val="311769288"/>
+        <c:axId val="308524280"/>
+        <c:axId val="309670176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="311768896"/>
+        <c:axId val="308524280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -486,7 +480,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311769288"/>
+        <c:crossAx val="309670176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -494,7 +488,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="311769288"/>
+        <c:axId val="309670176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -544,7 +538,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311768896"/>
+        <c:crossAx val="308524280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -818,11 +812,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="308072728"/>
-        <c:axId val="308073120"/>
+        <c:axId val="310659104"/>
+        <c:axId val="310960048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="308072728"/>
+        <c:axId val="310659104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -864,7 +858,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308073120"/>
+        <c:crossAx val="310960048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -872,7 +866,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="308073120"/>
+        <c:axId val="310960048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -922,7 +916,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308072728"/>
+        <c:crossAx val="310659104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1094,18 +1088,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>73.63</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>97.808999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>130</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1149,18 +1131,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>283.33</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>420</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1230,11 +1200,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="308073904"/>
-        <c:axId val="308074296"/>
+        <c:axId val="310960832"/>
+        <c:axId val="310961224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="308073904"/>
+        <c:axId val="310960832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1294,7 +1264,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308074296"/>
+        <c:crossAx val="310961224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1302,7 +1272,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="308074296"/>
+        <c:axId val="310961224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1363,7 +1333,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308073904"/>
+        <c:crossAx val="310960832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1689,11 +1659,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="311770072"/>
-        <c:axId val="311733272"/>
+        <c:axId val="309840512"/>
+        <c:axId val="309840896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="311770072"/>
+        <c:axId val="309840512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1735,7 +1705,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311733272"/>
+        <c:crossAx val="309840896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1743,7 +1713,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="311733272"/>
+        <c:axId val="309840896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1793,7 +1763,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311770072"/>
+        <c:crossAx val="309840512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2123,11 +2093,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="311734056"/>
-        <c:axId val="311734448"/>
+        <c:axId val="309890440"/>
+        <c:axId val="309892872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="311734056"/>
+        <c:axId val="309890440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2169,7 +2139,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311734448"/>
+        <c:crossAx val="309892872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2177,7 +2147,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="311734448"/>
+        <c:axId val="309892872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2227,7 +2197,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311734056"/>
+        <c:crossAx val="309890440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2561,11 +2531,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="311735232"/>
-        <c:axId val="311735624"/>
+        <c:axId val="309982232"/>
+        <c:axId val="309918392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="311735232"/>
+        <c:axId val="309982232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2607,7 +2577,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311735624"/>
+        <c:crossAx val="309918392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2615,7 +2585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="311735624"/>
+        <c:axId val="309918392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2665,7 +2635,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311735232"/>
+        <c:crossAx val="309982232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3076,11 +3046,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="311736408"/>
-        <c:axId val="311736800"/>
+        <c:axId val="309545160"/>
+        <c:axId val="310435912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="311736408"/>
+        <c:axId val="309545160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3122,7 +3092,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311736800"/>
+        <c:crossAx val="310435912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3130,7 +3100,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="311736800"/>
+        <c:axId val="310435912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3180,7 +3150,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311736408"/>
+        <c:crossAx val="309545160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3514,11 +3484,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="311986184"/>
-        <c:axId val="311986576"/>
+        <c:axId val="308047792"/>
+        <c:axId val="308048184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="311986184"/>
+        <c:axId val="308047792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3560,7 +3530,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311986576"/>
+        <c:crossAx val="308048184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3568,7 +3538,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="311986576"/>
+        <c:axId val="308048184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3618,7 +3588,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311986184"/>
+        <c:crossAx val="308047792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4072,11 +4042,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="311987360"/>
-        <c:axId val="311987752"/>
+        <c:axId val="310655576"/>
+        <c:axId val="310655968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="311987360"/>
+        <c:axId val="310655576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4137,7 +4107,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311987752"/>
+        <c:crossAx val="310655968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4145,7 +4115,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="311987752"/>
+        <c:axId val="310655968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4206,7 +4176,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311987360"/>
+        <c:crossAx val="310655576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4512,11 +4482,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="311988536"/>
-        <c:axId val="311988928"/>
+        <c:axId val="310656752"/>
+        <c:axId val="310657144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="311988536"/>
+        <c:axId val="310656752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4577,7 +4547,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311988928"/>
+        <c:crossAx val="310657144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4585,7 +4555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="311988928"/>
+        <c:axId val="310657144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4646,7 +4616,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311988536"/>
+        <c:crossAx val="310656752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5175,11 +5145,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="308071552"/>
-        <c:axId val="308071944"/>
+        <c:axId val="310657928"/>
+        <c:axId val="310658320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="308071552"/>
+        <c:axId val="310657928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5221,7 +5191,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308071944"/>
+        <c:crossAx val="310658320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5229,7 +5199,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="308071944"/>
+        <c:axId val="310658320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5279,7 +5249,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308071552"/>
+        <c:crossAx val="310657928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12058,7 +12028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -12777,7 +12747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -13484,7 +13454,7 @@
       <c r="E15" s="1">
         <v>33.488999999999997</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>332</v>
       </c>
     </row>
@@ -13764,7 +13734,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B29" sqref="B29:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14295,14 +14265,12 @@
       <c r="A29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14318,7 +14286,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14334,25 +14302,21 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1">
-        <v>73.63</v>
-      </c>
-      <c r="C2" s="1">
-        <v>100</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
       <c r="D2" s="1">
         <v>1</v>
       </c>
@@ -14361,12 +14325,8 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
-        <v>97.808999999999997</v>
-      </c>
-      <c r="C3" s="1">
-        <v>189</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="1">
         <v>2</v>
       </c>
@@ -14375,12 +14335,8 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
-        <v>110</v>
-      </c>
-      <c r="C4" s="1">
-        <v>283.33</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="1">
         <v>3</v>
       </c>
@@ -14389,12 +14345,8 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
-        <v>130</v>
-      </c>
-      <c r="C5" s="1">
-        <v>420</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>4</v>
       </c>
@@ -14403,12 +14355,8 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="1">
         <v>5</v>
       </c>
